--- a/examples/excel/financial_projection_CALCULATED_20251104.xlsx
+++ b/examples/excel/financial_projection_CALCULATED_20251104.xlsx
@@ -1942,7 +1942,7 @@
     <row r="5">
       <c r="A5" s="20" t="inlineStr">
         <is>
-          <t>B2C (개인 학습자)</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="B5" s="18" t="n">
@@ -1975,7 +1975,7 @@
     <row r="6">
       <c r="A6" s="20" t="inlineStr">
         <is>
-          <t>B2B (기업 교육)</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="B6" s="18" t="n">
@@ -2008,7 +2008,7 @@
     <row r="7">
       <c r="A7" s="20" t="inlineStr">
         <is>
-          <t>B2G (정부 사업)</t>
+          <t>B2G</t>
         </is>
       </c>
       <c r="B7" s="18" t="n">
@@ -2041,7 +2041,7 @@
     <row r="8">
       <c r="A8" s="20" t="inlineStr">
         <is>
-          <t>Global (해외)</t>
+          <t>Global</t>
         </is>
       </c>
       <c r="B8" s="18" t="n">
